--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">填写须知
 1.姓名、手机号码，角色为必填字段；
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>居住地址</t>
-  </si>
-  <si>
-    <t>联系方式</t>
   </si>
   <si>
     <t>电子邮箱</t>
@@ -85,9 +82,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -106,11 +103,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,43 +199,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,21 +236,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,53 +246,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,25 +256,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,157 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,36 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,20 +470,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +509,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,6 +532,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,10 +1032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="O2" sqref="O$1:O$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1048,11 +1045,11 @@
     <col min="11" max="11" width="15.375" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" customHeight="1" spans="1:19">
+    <row r="1" ht="63" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,9 +1070,8 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1129,9 +1125,6 @@
       </c>
       <c r="R2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -1139,7 +1132,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
@@ -1148,7 +1141,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3">
       <formula1>"硕士,博士,本科,专科,高中,初中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -80,12 +80,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,22 +105,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,15 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,99 +234,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +448,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,59 +527,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -713,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,7 +1044,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
@@ -81,12 +81,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,37 +105,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,38 +134,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,15 +170,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,30 +247,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +448,84 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,84 +548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,174 +556,187 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,6 +792,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1034,137 +1052,134 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="26.125" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="17.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="26.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="65" customHeight="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:18">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="11:11">
-      <c r="K3" s="3">
-        <v>44177</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CED7" sheet="1" objects="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2 P2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -81,12 +81,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,6 +112,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,7 +126,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,108 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +208,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,43 +257,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,67 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,66 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,15 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -493,8 +484,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,15 +548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,20 +1058,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" customWidth="1"/>
@@ -1164,21 +1164,24 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="6:6">
+      <c r="F4" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection password="CED7" sheet="1" objects="1"/>
+  <sheetProtection password="CED7" sheet="1" formatColumns="0" formatRows="0" objects="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2 P2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2 P2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -55,7 +55,7 @@
     <t>出生年月日</t>
   </si>
   <si>
-    <t>身份证号码</t>
+    <t>身份证号码*</t>
   </si>
   <si>
     <t>户籍地址</t>
@@ -81,12 +81,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,7 +105,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,47 +156,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,16 +172,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,56 +217,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,43 +257,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,49 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,18 +431,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,66 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +448,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +477,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,26 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,21 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -556,145 +556,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,18 +710,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -730,13 +730,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1142,7 +1142,7 @@
       <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -1173,15 +1173,15 @@
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2 P2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2 P2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
@@ -37,6 +37,9 @@
     <t>角色*</t>
   </si>
   <si>
+    <t>推荐人手机号码</t>
+  </si>
+  <si>
     <t>状态</t>
   </si>
   <si>
@@ -74,6 +77,21 @@
   </si>
   <si>
     <t>所学专业</t>
+  </si>
+  <si>
+    <t>家庭成员姓名</t>
+  </si>
+  <si>
+    <t>家庭成员关系</t>
+  </si>
+  <si>
+    <t>家庭成员电话</t>
+  </si>
+  <si>
+    <t>从事行业</t>
+  </si>
+  <si>
+    <t>联系地址</t>
   </si>
 </sst>
 </file>
@@ -81,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,12 +123,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -119,8 +151,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,28 +198,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,47 +236,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,32 +251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,19 +275,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,25 +377,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,79 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,49 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,58 +484,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -538,13 +510,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,137 +586,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,12 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,6 +746,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -1058,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1070,118 +1085,146 @@
     <col min="2" max="2" width="17.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="26.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="19.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="2" customWidth="1"/>
+    <col min="21" max="22" width="14.375" style="2" customWidth="1"/>
+    <col min="23" max="24" width="14.875" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="65" customHeight="1" spans="1:18">
+    <row r="1" ht="65" customHeight="1" spans="1:24">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:18">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:24">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="S2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="6:6">
-      <c r="F4" s="1"/>
+    <row r="4" spans="7:7">
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection password="CED7" sheet="1" formatColumns="0" formatRows="0" objects="1"/>
+  <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2 P2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -98,12 +98,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -123,12 +121,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -136,71 +164,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +180,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -220,26 +203,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,16 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +273,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,67 +423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,73 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,21 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,6 +474,48 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,44 +550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,172 +584,158 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,13 +1060,13 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="17.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.875" style="2" customWidth="1"/>
@@ -1091,7 +1075,7 @@
     <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="21.75" style="2" customWidth="1"/>
@@ -1106,104 +1090,104 @@
   </cols>
   <sheetData>
     <row r="1" ht="65" customHeight="1" spans="1:24">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>所学专业</t>
+  </si>
+  <si>
+    <t>紧急联系姓名</t>
+  </si>
+  <si>
+    <t>紧急联系人电话</t>
+  </si>
+  <si>
+    <t>紧急联系关系</t>
   </si>
   <si>
     <t>家庭成员姓名</t>
@@ -101,8 +110,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,13 +130,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -142,23 +164,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +179,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -180,32 +234,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,52 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,37 +282,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,43 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,84 +450,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,12 +463,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +509,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -513,9 +535,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,21 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1083,13 +1092,16 @@
     <col min="17" max="17" width="14.25" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
     <col min="19" max="19" width="11.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.625" style="2" customWidth="1"/>
-    <col min="21" max="22" width="14.375" style="2" customWidth="1"/>
-    <col min="23" max="24" width="14.875" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="20" max="20" width="19.75" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.625" style="2" customWidth="1"/>
+    <col min="24" max="25" width="14.375" style="2" customWidth="1"/>
+    <col min="26" max="27" width="14.875" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="65" customHeight="1" spans="1:24">
+    <row r="1" ht="65" customHeight="1" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1116,8 +1128,11 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:24">
+    <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1189,6 +1204,15 @@
       </c>
       <c r="X2" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="7:7">
@@ -1197,9 +1221,12 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"在职,离职,合作"</formula1>
@@ -1207,9 +1234,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -79,13 +79,13 @@
     <t>所学专业</t>
   </si>
   <si>
-    <t>紧急联系姓名</t>
+    <t>紧急联系人姓名</t>
   </si>
   <si>
     <t>紧急联系人电话</t>
   </si>
   <si>
-    <t>紧急联系关系</t>
+    <t>紧急联系人关系</t>
   </si>
   <si>
     <t>家庭成员姓名</t>
@@ -108,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -129,6 +129,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -136,36 +203,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,95 +250,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,13 +282,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,156 +342,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,12 +463,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,11 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,9 +508,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,18 +545,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,21 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="T2" sqref="T2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1224,15 +1224,15 @@
     <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"在职,离职,合作"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,14 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -144,6 +136,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -152,8 +165,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,51 +175,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +196,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -228,21 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -266,8 +236,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,181 +282,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,21 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,26 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +538,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,130 +593,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,8 +1068,8 @@
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1225,14 +1225,14 @@
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+      <formula1>"合约中,已解约,合作"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
-      <formula1>"在职,离职,合作"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -14,12 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>填写须知
-1.姓名、手机号码、企业、角色为必填字段；
-2.出生年月日格式为2021-01-01；
-3.状态、性别、学历通过下拉选择；</t>
+1.姓名、手机号码、企业、角色为必填字段;
+2.出生年月日格式为2021-01-01;
+3.状态、性别、学历通过下拉选择;
+4.签约时间格式为2022-01-01;</t>
   </si>
   <si>
     <t>姓名*</t>
@@ -35,6 +36,9 @@
   </si>
   <si>
     <t>角色*</t>
+  </si>
+  <si>
+    <t>签约日期*</t>
   </si>
   <si>
     <t>推荐人手机号码</t>
@@ -1066,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1078,30 +1082,30 @@
     <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="19.125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="17.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.625" style="2" customWidth="1"/>
-    <col min="24" max="25" width="14.375" style="2" customWidth="1"/>
-    <col min="26" max="27" width="14.875" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="19.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.75" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="14.375" style="2" customWidth="1"/>
+    <col min="27" max="28" width="14.875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="65" customHeight="1" spans="1:27">
+    <row r="1" ht="74" customHeight="1" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1131,8 +1135,9 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
+    <row r="2" s="1" customFormat="1" spans="1:28">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1148,10 +1153,10 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1169,10 +1174,10 @@
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -1214,24 +1219,27 @@
       <c r="AA2" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="AB2" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="7:7">
-      <c r="G4" s="1"/>
+    <row r="4" spans="8:8">
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A1:AB1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
-      <formula1>"合约中,已解约,合作"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+      <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
       <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1234,7 +1234,7 @@
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>"在职,离职,合作"</formula1>
+      <formula1>"签约中,已解约,合作"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"男,女"</formula1>

--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\tangsanzang\zerody-user-system\src\main\resources\static\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA4655-CA2D-458E-B137-0CF97F26BCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段;
@@ -47,6 +41,9 @@
     <t>签约日期*</t>
   </si>
   <si>
+    <t>合约结束日期*</t>
+  </si>
+  <si>
     <t>推荐人手机号码</t>
   </si>
   <si>
@@ -116,8 +113,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,21 +136,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,9 +482,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -173,6 +742,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -182,21 +754,62 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -454,186 +1067,190 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="17.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15.08984375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.08984375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.36328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.36328125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="19.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="19.08984375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.7265625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.6328125" style="2" customWidth="1"/>
-    <col min="25" max="26" width="14.36328125" style="2" customWidth="1"/>
-    <col min="27" max="28" width="14.90625" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="17.725" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9083333333333" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.0916666666667" style="2" customWidth="1"/>
+    <col min="6" max="8" width="19.9083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.725" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.3666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.63333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.6333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.0916666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.3666666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.725" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.2666666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.3666666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11.9083333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.725" style="2" customWidth="1"/>
+    <col min="23" max="23" width="19.0916666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="17.725" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.6333333333333" style="2" customWidth="1"/>
+    <col min="26" max="27" width="14.3666666666667" style="2" customWidth="1"/>
+    <col min="28" max="29" width="14.9083333333333" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="74" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="74" customHeight="1" spans="1:29">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:29">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="AC2" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
+    <row r="4" spans="9:9">
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A1:AC1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 J2 S2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"合约中,已解约,合作"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576">
       <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/template/crm_staff.xlsx
+++ b/src/main/resources/static/template/crm_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>签约日期*</t>
   </si>
   <si>
-    <t>合约结束日期*</t>
+    <t>合约结束日期</t>
   </si>
   <si>
     <t>推荐人手机号码</t>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1160,7 +1160,7 @@
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
